--- a/scripting/boundary_conditions/wlwq_allsamples/TFV_mapping_keys.xlsx
+++ b/scripting/boundary_conditions/wlwq_allsamples/TFV_mapping_keys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yvette/Desktop/Work/UWA AED/Hydro Tasmania/tassie-lake/tassielakes-data/scripting/boundary_conditions/wlwq_allsamples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3252B7-1DD8-7B4B-9221-D51DF6CBCD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5231A83-9F11-C34D-86A8-E30A272EDA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14660" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{31442990-50AF-C843-98D9-B85B28910463}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="554">
   <si>
     <t>Params.Name</t>
   </si>
@@ -1694,13 +1694,16 @@
   </si>
   <si>
     <t>1992-2011</t>
+  </si>
+  <si>
+    <t>MARVL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1848,8 +1851,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2049,18 +2059,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2226,14 +2224,25 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2615,1418 +2624,1455 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10.83203125" style="7"/>
     <col min="3" max="3" width="39.5" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="47.6640625" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="47.6640625" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="J2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="5">
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="5">
         <v>32.258064516129032</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="5">
         <v>31.25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="5">
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="5">
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="5">
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="I13" s="5"/>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="4">
         <v>100.0869</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="5" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="J15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="H17" s="5"/>
+      <c r="I17" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="J17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="5">
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="4" t="s">
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="J21" s="1">
-        <v>1</v>
-      </c>
-      <c r="K21" s="4" t="s">
+      <c r="J21" s="5">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="J22" s="1">
-        <v>1</v>
-      </c>
-      <c r="K22" s="4" t="s">
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="J23" s="1">
-        <v>1</v>
-      </c>
-      <c r="K23" s="4" t="s">
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-      <c r="G24" s="5" t="s">
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="J24" s="1">
-        <v>1</v>
-      </c>
-      <c r="K24" s="4" t="s">
+      <c r="J24" s="5">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="4">
-        <v>1</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="J25" s="1">
-        <v>1</v>
-      </c>
-      <c r="K25" s="4" t="s">
+      <c r="J25" s="5">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="4">
-        <v>1</v>
-      </c>
-      <c r="G26" s="5" t="s">
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="J26" s="1">
-        <v>1</v>
-      </c>
-      <c r="K26" s="4" t="s">
+      <c r="J26" s="5">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F27" s="4">
-        <v>1</v>
-      </c>
-      <c r="G27" s="4" t="s">
+      <c r="E27" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I27" s="1" t="s">
+      <c r="H27" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="J27" s="1">
-        <v>1</v>
-      </c>
-      <c r="K27" s="4" t="s">
+      <c r="J27" s="5">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
         <v>2004</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="4">
-        <v>1</v>
-      </c>
-      <c r="G28" s="5" t="s">
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="J28" s="1">
-        <v>1</v>
-      </c>
-      <c r="K28" s="4" t="s">
+      <c r="J28" s="5">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="4">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5" t="s">
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="J29" s="1">
-        <v>1</v>
-      </c>
-      <c r="K29" s="4" t="s">
+      <c r="J29" s="5">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="4">
-        <v>1</v>
-      </c>
-      <c r="G30" s="5" t="s">
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="J30" s="1">
-        <v>1</v>
-      </c>
-      <c r="K30" s="4" t="s">
+      <c r="J30" s="5">
+        <v>1</v>
+      </c>
+      <c r="K30" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="4">
-        <v>1</v>
-      </c>
-      <c r="G31" s="5" t="s">
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="J31" s="1">
-        <v>1</v>
-      </c>
-      <c r="K31" s="4" t="s">
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="8">
         <v>2012</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="4">
-        <v>1</v>
-      </c>
-      <c r="G32" s="5" t="s">
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I32" s="1" t="s">
+      <c r="H32" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="J32" s="1">
-        <v>1</v>
-      </c>
-      <c r="K32" s="4" t="s">
+      <c r="J32" s="5">
+        <v>1</v>
+      </c>
+      <c r="K32" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="8">
         <v>2012</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="4">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5" t="s">
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I33" s="1" t="s">
+      <c r="H33" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="J33" s="1">
-        <v>1</v>
-      </c>
-      <c r="K33" s="4" t="s">
+      <c r="J33" s="5">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="4">
-        <v>1</v>
-      </c>
-      <c r="G34" s="4" t="s">
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="J34" s="1">
-        <v>1</v>
-      </c>
-      <c r="K34" s="4" t="s">
+      <c r="J34" s="5">
+        <v>1</v>
+      </c>
+      <c r="K34" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
         <v>2014</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="4">
-        <v>1</v>
-      </c>
-      <c r="G35" s="4" t="s">
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="J35" s="1">
-        <v>1</v>
-      </c>
-      <c r="K35" s="4" t="s">
+      <c r="J35" s="5">
+        <v>1</v>
+      </c>
+      <c r="K35" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="4">
-        <v>1</v>
-      </c>
-      <c r="G36" s="4" t="s">
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="J36" s="1">
-        <v>1</v>
-      </c>
-      <c r="K36" s="4" t="s">
+      <c r="J36" s="5">
+        <v>1</v>
+      </c>
+      <c r="K36" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="F37" s="4">
-        <v>1</v>
-      </c>
-      <c r="G37" s="4" t="s">
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="K37" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="1">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="F38" s="5">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38" s="5">
         <v>32.258064516129032</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39" s="5">
         <v>32.258064516129032</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="K39" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="1">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1" t="s">
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="4">
         <v>96.06</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M40" s="4" t="s">
+      <c r="K40" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="M40" s="5" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1" t="s">
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="J41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="J41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="F42" s="1">
-        <v>1</v>
-      </c>
-      <c r="G42" s="4" t="s">
+      <c r="F42" s="5">
+        <v>1</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="J42" s="1">
-        <v>1</v>
-      </c>
+      <c r="J42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>

--- a/scripting/boundary_conditions/wlwq_allsamples/TFV_mapping_keys.xlsx
+++ b/scripting/boundary_conditions/wlwq_allsamples/TFV_mapping_keys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yvette/Desktop/Work/UWA AED/Hydro Tasmania/tassie-lake/tassielakes-data/scripting/boundary_conditions/wlwq_allsamples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5231A83-9F11-C34D-86A8-E30A272EDA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62F0F4E-3854-5D4F-A304-28145E328394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14660" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{31442990-50AF-C843-98D9-B85B28910463}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17200" activeTab="1" xr2:uid="{31442990-50AF-C843-98D9-B85B28910463}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_TFV_Y" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="582">
   <si>
     <t>Params.Name</t>
   </si>
@@ -1697,6 +1697,90 @@
   </si>
   <si>
     <t>MARVL</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_DIATOM_ACHNANTHES</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_DIATOM_AULACOSEIRA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_DIATOM_CYCLOTELLA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_DIATOM_CYMBELLA_HAUCKII</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_DIATOM_DIATOMA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_DIATOM_FRAGILARIA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_DIATOM_GOMPHONEMA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_DIATOM_NAVICULA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_DIATOM_NITZSCHIA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_DIATOM_SYNEDRA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_DIATOM_ULNARIA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_DIATOM_UROSOLENIA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_DIATOM_UNID_DIATOM_BACILLARIALE</t>
+  </si>
+  <si>
+    <t>2014-2024</t>
+  </si>
+  <si>
+    <t>2014-2022</t>
+  </si>
+  <si>
+    <t>2015-2024</t>
+  </si>
+  <si>
+    <t>2015&amp;2023</t>
+  </si>
+  <si>
+    <t>2014-2015</t>
+  </si>
+  <si>
+    <t>2015-2019</t>
+  </si>
+  <si>
+    <t>2014-2019</t>
+  </si>
+  <si>
+    <t>2022-2023</t>
+  </si>
+  <si>
+    <t>2017-2021</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_CHARA_</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_BGA_</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_DINO_</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_EUGLE_</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_OCHRO_</t>
   </si>
 </sst>
 </file>
@@ -1859,7 +1943,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2063,6 +2147,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAF2D0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2224,7 +2314,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2243,6 +2333,8 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2623,7 +2715,7 @@
   </sheetPr>
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
@@ -4085,19 +4177,20 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="47.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4113,14 +4206,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>135</v>
       </c>
@@ -4136,14 +4229,20 @@
       <c r="E2" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>130</v>
+      <c r="F2" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2015</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>137</v>
       </c>
@@ -4163,13 +4262,16 @@
         <v>517</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>130</v>
+        <v>567</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>139</v>
       </c>
@@ -4185,14 +4287,20 @@
       <c r="E4" s="3" t="s">
         <v>139</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>555</v>
+      </c>
       <c r="G4" s="3" t="s">
-        <v>130</v>
+        <v>567</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>141</v>
       </c>
@@ -4208,14 +4316,20 @@
       <c r="E5" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>556</v>
+      </c>
       <c r="G5" s="3" t="s">
-        <v>130</v>
+        <v>568</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>143</v>
       </c>
@@ -4231,14 +4345,20 @@
       <c r="E6" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>130</v>
+      <c r="F6" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2015</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>145</v>
       </c>
@@ -4254,14 +4374,20 @@
       <c r="E7" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>130</v>
+      <c r="F7" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2022</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>147</v>
       </c>
@@ -4277,14 +4403,20 @@
       <c r="E8" s="3" t="s">
         <v>147</v>
       </c>
+      <c r="F8" s="3" t="s">
+        <v>559</v>
+      </c>
       <c r="G8" s="3" t="s">
-        <v>130</v>
+        <v>569</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>149</v>
       </c>
@@ -4300,14 +4432,20 @@
       <c r="E9" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>130</v>
+      <c r="F9" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>570</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>151</v>
       </c>
@@ -4323,14 +4461,20 @@
       <c r="E10" s="3" t="s">
         <v>151</v>
       </c>
+      <c r="F10" s="3" t="s">
+        <v>561</v>
+      </c>
       <c r="G10" s="3" t="s">
-        <v>130</v>
+        <v>571</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>153</v>
       </c>
@@ -4346,14 +4490,20 @@
       <c r="E11" s="3" t="s">
         <v>153</v>
       </c>
+      <c r="F11" s="3" t="s">
+        <v>562</v>
+      </c>
       <c r="G11" s="3" t="s">
-        <v>130</v>
+        <v>572</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>155</v>
       </c>
@@ -4369,14 +4519,20 @@
       <c r="E12" s="3" t="s">
         <v>155</v>
       </c>
+      <c r="F12" s="3" t="s">
+        <v>563</v>
+      </c>
       <c r="G12" s="3" t="s">
-        <v>130</v>
+        <v>573</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>157</v>
       </c>
@@ -4392,14 +4548,20 @@
       <c r="E13" s="3" t="s">
         <v>157</v>
       </c>
+      <c r="F13" s="3" t="s">
+        <v>564</v>
+      </c>
       <c r="G13" s="3" t="s">
-        <v>130</v>
+        <v>574</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>159</v>
       </c>
@@ -4415,14 +4577,20 @@
       <c r="E14" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>130</v>
+      <c r="F14" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2019</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>161</v>
       </c>
@@ -4438,14 +4606,20 @@
       <c r="E15" s="3" t="s">
         <v>161</v>
       </c>
+      <c r="F15" s="3" t="s">
+        <v>566</v>
+      </c>
       <c r="G15" s="3" t="s">
-        <v>130</v>
+        <v>575</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E16" s="3" t="s">
         <v>518</v>
       </c>
@@ -4453,7 +4627,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>171</v>
       </c>
@@ -4469,14 +4643,14 @@
       <c r="E17" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H17" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>173</v>
       </c>
@@ -4492,14 +4666,17 @@
       <c r="E18" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>130</v>
+      <c r="F18" s="3" t="s">
+        <v>576</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>175</v>
       </c>
@@ -4515,14 +4692,14 @@
       <c r="E19" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>177</v>
       </c>
@@ -4538,14 +4715,14 @@
       <c r="E20" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H20" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>179</v>
       </c>
@@ -4561,14 +4738,14 @@
       <c r="E21" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H21" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>181</v>
       </c>
@@ -4584,14 +4761,14 @@
       <c r="E22" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H22" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>183</v>
       </c>
@@ -4607,14 +4784,14 @@
       <c r="E23" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H23" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>185</v>
       </c>
@@ -4630,14 +4807,14 @@
       <c r="E24" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H24" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>187</v>
       </c>
@@ -4653,14 +4830,14 @@
       <c r="E25" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H25" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>192</v>
       </c>
@@ -4676,14 +4853,14 @@
       <c r="E26" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H26" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>194</v>
       </c>
@@ -4699,14 +4876,14 @@
       <c r="E27" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H27" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>196</v>
       </c>
@@ -4722,14 +4899,17 @@
       <c r="E28" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>130</v>
+      <c r="F28" s="3" t="s">
+        <v>577</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>198</v>
       </c>
@@ -4745,14 +4925,14 @@
       <c r="E29" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H29" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>200</v>
       </c>
@@ -4768,14 +4948,14 @@
       <c r="E30" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H30" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>202</v>
       </c>
@@ -4791,14 +4971,14 @@
       <c r="E31" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H31" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>204</v>
       </c>
@@ -4814,14 +4994,14 @@
       <c r="E32" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H32" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>206</v>
       </c>
@@ -4837,14 +5017,14 @@
       <c r="E33" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H33" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>208</v>
       </c>
@@ -4860,14 +5040,14 @@
       <c r="E34" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H34" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>210</v>
       </c>
@@ -4883,14 +5063,14 @@
       <c r="E35" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H35" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>212</v>
       </c>
@@ -4906,14 +5086,14 @@
       <c r="E36" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H36" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>214</v>
       </c>
@@ -4929,14 +5109,14 @@
       <c r="E37" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H37" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>216</v>
       </c>
@@ -4952,14 +5132,14 @@
       <c r="E38" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H38" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>218</v>
       </c>
@@ -4975,14 +5155,14 @@
       <c r="E39" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H39" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>220</v>
       </c>
@@ -4998,14 +5178,14 @@
       <c r="E40" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H40" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>222</v>
       </c>
@@ -5021,14 +5201,14 @@
       <c r="E41" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H41" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>224</v>
       </c>
@@ -5044,14 +5224,14 @@
       <c r="E42" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H42" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>226</v>
       </c>
@@ -5067,14 +5247,14 @@
       <c r="E43" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H43" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>228</v>
       </c>
@@ -5090,14 +5270,14 @@
       <c r="E44" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H44" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>230</v>
       </c>
@@ -5113,14 +5293,14 @@
       <c r="E45" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H45" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>232</v>
       </c>
@@ -5136,14 +5316,14 @@
       <c r="E46" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H46" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>234</v>
       </c>
@@ -5159,14 +5339,14 @@
       <c r="E47" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H47" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>236</v>
       </c>
@@ -5182,14 +5362,14 @@
       <c r="E48" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H48" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>238</v>
       </c>
@@ -5205,14 +5385,14 @@
       <c r="E49" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H49" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>241</v>
       </c>
@@ -5228,14 +5408,14 @@
       <c r="E50" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H50" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>243</v>
       </c>
@@ -5251,14 +5431,14 @@
       <c r="E51" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H51" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>245</v>
       </c>
@@ -5274,14 +5454,14 @@
       <c r="E52" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H52" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>247</v>
       </c>
@@ -5297,14 +5477,14 @@
       <c r="E53" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H53" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>249</v>
       </c>
@@ -5320,14 +5500,14 @@
       <c r="E54" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H54" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>251</v>
       </c>
@@ -5343,14 +5523,14 @@
       <c r="E55" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H55" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>253</v>
       </c>
@@ -5366,14 +5546,14 @@
       <c r="E56" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H56" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>255</v>
       </c>
@@ -5389,14 +5569,14 @@
       <c r="E57" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H57" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>257</v>
       </c>
@@ -5412,14 +5592,14 @@
       <c r="E58" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H58" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>260</v>
       </c>
@@ -5435,14 +5615,14 @@
       <c r="E59" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H59" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>262</v>
       </c>
@@ -5458,14 +5638,14 @@
       <c r="E60" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H60" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>264</v>
       </c>
@@ -5481,14 +5661,14 @@
       <c r="E61" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="G61" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H61" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>266</v>
       </c>
@@ -5504,14 +5684,14 @@
       <c r="E62" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H62" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>268</v>
       </c>
@@ -5527,14 +5707,14 @@
       <c r="E63" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="G63" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H63" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>270</v>
       </c>
@@ -5550,14 +5730,14 @@
       <c r="E64" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G64" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H64" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>272</v>
       </c>
@@ -5573,14 +5753,14 @@
       <c r="E65" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="G65" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H65" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>274</v>
       </c>
@@ -5596,14 +5776,14 @@
       <c r="E66" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H66" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>276</v>
       </c>
@@ -5619,14 +5799,14 @@
       <c r="E67" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H67" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>283</v>
       </c>
@@ -5642,14 +5822,14 @@
       <c r="E68" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H68" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>285</v>
       </c>
@@ -5665,14 +5845,14 @@
       <c r="E69" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="G69" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H69" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>287</v>
       </c>
@@ -5688,14 +5868,14 @@
       <c r="E70" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H70" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>289</v>
       </c>
@@ -5711,14 +5891,14 @@
       <c r="E71" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="G71" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H71" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>291</v>
       </c>
@@ -5734,14 +5914,14 @@
       <c r="E72" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H72" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>296</v>
       </c>
@@ -5757,14 +5937,14 @@
       <c r="E73" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="G73" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H73" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>298</v>
       </c>
@@ -5780,14 +5960,14 @@
       <c r="E74" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H74" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>300</v>
       </c>
@@ -5803,14 +5983,14 @@
       <c r="E75" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="G75" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H75" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>302</v>
       </c>
@@ -5826,14 +6006,17 @@
       <c r="E76" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>130</v>
+      <c r="F76" s="3" t="s">
+        <v>578</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>304</v>
       </c>
@@ -5849,14 +6032,14 @@
       <c r="E77" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="G77" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H77" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>306</v>
       </c>
@@ -5872,14 +6055,14 @@
       <c r="E78" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H78" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>308</v>
       </c>
@@ -5895,14 +6078,14 @@
       <c r="E79" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="G79" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H79" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>310</v>
       </c>
@@ -5918,14 +6101,14 @@
       <c r="E80" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="G80" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H80" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>312</v>
       </c>
@@ -5941,14 +6124,14 @@
       <c r="E81" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H81" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>314</v>
       </c>
@@ -5964,14 +6147,14 @@
       <c r="E82" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="G82" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H82" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>316</v>
       </c>
@@ -5987,14 +6170,14 @@
       <c r="E83" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H83" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>318</v>
       </c>
@@ -6010,14 +6193,14 @@
       <c r="E84" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="G84" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H84" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>320</v>
       </c>
@@ -6033,14 +6216,14 @@
       <c r="E85" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="G85" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H85" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>322</v>
       </c>
@@ -6056,14 +6239,14 @@
       <c r="E86" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="G86" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H86" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>324</v>
       </c>
@@ -6079,14 +6262,14 @@
       <c r="E87" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="G87" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H87" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>326</v>
       </c>
@@ -6102,14 +6285,14 @@
       <c r="E88" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="G88" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H88" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>328</v>
       </c>
@@ -6125,14 +6308,14 @@
       <c r="E89" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H89" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>330</v>
       </c>
@@ -6148,14 +6331,14 @@
       <c r="E90" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="G90" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H90" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>332</v>
       </c>
@@ -6171,14 +6354,14 @@
       <c r="E91" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H91" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>334</v>
       </c>
@@ -6194,14 +6377,14 @@
       <c r="E92" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="G92" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H92" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>336</v>
       </c>
@@ -6217,14 +6400,14 @@
       <c r="E93" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="G93" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H93" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>338</v>
       </c>
@@ -6240,14 +6423,14 @@
       <c r="E94" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H94" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>340</v>
       </c>
@@ -6263,14 +6446,14 @@
       <c r="E95" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="G95" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H95" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>342</v>
       </c>
@@ -6286,14 +6469,14 @@
       <c r="E96" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="G96" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H96" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>344</v>
       </c>
@@ -6309,14 +6492,14 @@
       <c r="E97" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="G97" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H97" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>346</v>
       </c>
@@ -6332,14 +6515,14 @@
       <c r="E98" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="G98" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H98" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>348</v>
       </c>
@@ -6355,14 +6538,14 @@
       <c r="E99" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="G99" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H99" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>350</v>
       </c>
@@ -6378,14 +6561,14 @@
       <c r="E100" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H100" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>354</v>
       </c>
@@ -6401,14 +6584,17 @@
       <c r="E101" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>130</v>
+      <c r="F101" s="3" t="s">
+        <v>579</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>356</v>
       </c>
@@ -6424,14 +6610,14 @@
       <c r="E102" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H102" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>366</v>
       </c>
@@ -6447,14 +6633,17 @@
       <c r="E103" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="G103" s="3" t="s">
-        <v>130</v>
+      <c r="F103" s="3" t="s">
+        <v>580</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>368</v>
       </c>
@@ -6470,14 +6659,14 @@
       <c r="E104" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="G104" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H104" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>370</v>
       </c>
@@ -6493,14 +6682,14 @@
       <c r="E105" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="G105" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H105" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>395</v>
       </c>
@@ -6516,14 +6705,17 @@
       <c r="E106" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="G106" s="3" t="s">
-        <v>130</v>
+      <c r="F106" s="13" t="s">
+        <v>581</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>397</v>
       </c>
@@ -6539,14 +6731,14 @@
       <c r="E107" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="G107" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H107" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>399</v>
       </c>
@@ -6562,14 +6754,14 @@
       <c r="E108" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="G108" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H108" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>401</v>
       </c>
@@ -6585,14 +6777,14 @@
       <c r="E109" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="G109" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H109" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>403</v>
       </c>
@@ -6608,14 +6800,14 @@
       <c r="E110" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="G110" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H110" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>405</v>
       </c>
@@ -6631,14 +6823,14 @@
       <c r="E111" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="G111" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H111" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>407</v>
       </c>
@@ -6654,14 +6846,14 @@
       <c r="E112" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="G112" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H112" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>409</v>
       </c>
@@ -6677,14 +6869,14 @@
       <c r="E113" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="G113" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H113" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>411</v>
       </c>
@@ -6700,14 +6892,14 @@
       <c r="E114" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="G114" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H114" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>413</v>
       </c>
@@ -6723,14 +6915,14 @@
       <c r="E115" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="G115" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H115" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>415</v>
       </c>
@@ -6746,10 +6938,10 @@
       <c r="E116" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="G116" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H116" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I116" s="3" t="s">
         <v>131</v>
       </c>
     </row>

--- a/scripting/boundary_conditions/wlwq_allsamples/TFV_mapping_keys.xlsx
+++ b/scripting/boundary_conditions/wlwq_allsamples/TFV_mapping_keys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yvette/Desktop/Work/UWA AED/Hydro Tasmania/tassie-lake/tassielakes-data/scripting/boundary_conditions/wlwq_allsamples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62F0F4E-3854-5D4F-A304-28145E328394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F29F498-DEFF-9140-80BD-024E4D9FE5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17200" activeTab="1" xr2:uid="{31442990-50AF-C843-98D9-B85B28910463}"/>
+    <workbookView xWindow="-4540" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{31442990-50AF-C843-98D9-B85B28910463}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_TFV_Y" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="638">
   <si>
     <t>Params.Name</t>
   </si>
@@ -1765,12 +1765,6 @@
     <t>2017-2021</t>
   </si>
   <si>
-    <t>WQ_DIAG_PHY_CHARA_</t>
-  </si>
-  <si>
-    <t>WQ_DIAG_PHY_GRN_</t>
-  </si>
-  <si>
     <t>WQ_DIAG_PHY_BGA_</t>
   </si>
   <si>
@@ -1781,6 +1775,180 @@
   </si>
   <si>
     <t>WQ_DIAG_PHY_OCHRO_</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_CHARA_COSMOCLADIUM</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_CHARA_ELAKATOTHRIX</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_CHARA_EUASTRUM</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_CHARA_EUDORINA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_CHARA_MESOTAENIUM</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_CHARA_ONYCHONEMA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_CHARA_SPONDYLOSIUM</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_CHARA_TEILINGIA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_CHARA_ZYGNEMA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN__ANKISTRODESMUS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN__ANKYRA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_BOTRYCOCCUS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_CHLAMYDOMONAS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_CHLOROGONIUM</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_CHODATELLA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_CLOSTERIOPSIS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_CLOSTERIUM</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_COELASTRUM</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_COMASIELLA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_COSMARIUM</t>
+  </si>
+  <si>
+    <t>Charophyta (Total)</t>
+  </si>
+  <si>
+    <t>Chlorophyta (Total)</t>
+  </si>
+  <si>
+    <t>Chrysophyta (Total)</t>
+  </si>
+  <si>
+    <t>Cryptophyta (Total)</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_CRUCIGENIA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_CRUCIGENIELLA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_DESMODESMUS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_DICTYOSPHAERIUM</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_GLOEOCYSTIS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_GOLENKINIA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_GOLENKINIOPSIS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_GONIUM</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_KIRCHNERIELLA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_LAGERHEIMIA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_MICRACTINIUM</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_MICROSPORA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_MONORAPHIDIUM</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_MOUGEOTIA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_NEPHROCYTIUM</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_OOCYSTIS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_PANDORINA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_PAULSCHULZIA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_PEDIASTRUM</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_PLANKTOSPHAERIA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_PYRAMIMONAS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_QUADRIGULA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_SCENEDESMUS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_SPHAERELLOPSIS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_SPHAEROCYSTIS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_SPHAEROZOSMA_VERTEBRATUM</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_STAURASTRUM</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_STAURODESMUS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_TETRAEDRON</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_ULOTHRIX</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_VOLVOX</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_CHARA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_CHRYSO</t>
   </si>
 </sst>
 </file>
@@ -4177,10 +4345,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4643,6 +4811,9 @@
       <c r="E17" s="3" t="s">
         <v>171</v>
       </c>
+      <c r="F17" s="3" t="s">
+        <v>580</v>
+      </c>
       <c r="H17" s="3" t="s">
         <v>130</v>
       </c>
@@ -4667,7 +4838,7 @@
         <v>173</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>130</v>
@@ -4692,6 +4863,9 @@
       <c r="E19" s="3" t="s">
         <v>175</v>
       </c>
+      <c r="F19" s="3" t="s">
+        <v>582</v>
+      </c>
       <c r="H19" s="3" t="s">
         <v>130</v>
       </c>
@@ -4715,6 +4889,9 @@
       <c r="E20" s="3" t="s">
         <v>177</v>
       </c>
+      <c r="F20" s="3" t="s">
+        <v>583</v>
+      </c>
       <c r="H20" s="3" t="s">
         <v>130</v>
       </c>
@@ -4738,6 +4915,9 @@
       <c r="E21" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="F21" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="H21" s="3" t="s">
         <v>130</v>
       </c>
@@ -4761,6 +4941,9 @@
       <c r="E22" s="3" t="s">
         <v>181</v>
       </c>
+      <c r="F22" s="3" t="s">
+        <v>585</v>
+      </c>
       <c r="H22" s="3" t="s">
         <v>130</v>
       </c>
@@ -4784,6 +4967,9 @@
       <c r="E23" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="F23" s="3" t="s">
+        <v>586</v>
+      </c>
       <c r="H23" s="3" t="s">
         <v>130</v>
       </c>
@@ -4807,6 +4993,9 @@
       <c r="E24" s="3" t="s">
         <v>185</v>
       </c>
+      <c r="F24" s="3" t="s">
+        <v>587</v>
+      </c>
       <c r="H24" s="3" t="s">
         <v>130</v>
       </c>
@@ -4830,6 +5019,9 @@
       <c r="E25" s="3" t="s">
         <v>187</v>
       </c>
+      <c r="F25" s="3" t="s">
+        <v>588</v>
+      </c>
       <c r="H25" s="3" t="s">
         <v>130</v>
       </c>
@@ -4838,31 +5030,16 @@
       </c>
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="E26" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>131</v>
+        <v>600</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>128</v>
@@ -4871,10 +5048,13 @@
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>589</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>130</v>
@@ -4885,7 +5065,7 @@
     </row>
     <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>128</v>
@@ -4894,13 +5074,13 @@
         <v>1</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>130</v>
@@ -4911,7 +5091,7 @@
     </row>
     <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>128</v>
@@ -4920,10 +5100,13 @@
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>591</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>130</v>
@@ -4934,7 +5117,7 @@
     </row>
     <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>128</v>
@@ -4943,10 +5126,13 @@
         <v>1</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>592</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>130</v>
@@ -4957,7 +5143,7 @@
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>128</v>
@@ -4966,10 +5152,13 @@
         <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>593</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>130</v>
@@ -4980,7 +5169,7 @@
     </row>
     <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>128</v>
@@ -4989,10 +5178,13 @@
         <v>1</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>594</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>130</v>
@@ -5003,7 +5195,7 @@
     </row>
     <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>128</v>
@@ -5012,10 +5204,13 @@
         <v>1</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>595</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>130</v>
@@ -5026,7 +5221,7 @@
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>128</v>
@@ -5035,10 +5230,13 @@
         <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>596</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>130</v>
@@ -5049,7 +5247,7 @@
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>128</v>
@@ -5058,10 +5256,13 @@
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>597</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>130</v>
@@ -5072,7 +5273,7 @@
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>128</v>
@@ -5081,10 +5282,13 @@
         <v>1</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>598</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>130</v>
@@ -5095,7 +5299,7 @@
     </row>
     <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>128</v>
@@ -5104,10 +5308,13 @@
         <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>599</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>130</v>
@@ -5118,7 +5325,7 @@
     </row>
     <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>128</v>
@@ -5127,10 +5334,13 @@
         <v>1</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>604</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>130</v>
@@ -5141,7 +5351,7 @@
     </row>
     <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>128</v>
@@ -5150,10 +5360,13 @@
         <v>1</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>130</v>
@@ -5164,7 +5377,7 @@
     </row>
     <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>128</v>
@@ -5173,10 +5386,13 @@
         <v>1</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>606</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>130</v>
@@ -5187,7 +5403,7 @@
     </row>
     <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>128</v>
@@ -5196,10 +5412,13 @@
         <v>1</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>607</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>130</v>
@@ -5210,7 +5429,7 @@
     </row>
     <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>128</v>
@@ -5219,10 +5438,13 @@
         <v>1</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>608</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>130</v>
@@ -5233,7 +5455,7 @@
     </row>
     <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>128</v>
@@ -5242,10 +5464,13 @@
         <v>1</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>609</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>130</v>
@@ -5256,7 +5481,7 @@
     </row>
     <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>128</v>
@@ -5265,10 +5490,13 @@
         <v>1</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>610</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>130</v>
@@ -5279,7 +5507,7 @@
     </row>
     <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>128</v>
@@ -5288,10 +5516,13 @@
         <v>1</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>611</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>130</v>
@@ -5302,7 +5533,7 @@
     </row>
     <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>128</v>
@@ -5311,10 +5542,13 @@
         <v>1</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>612</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>130</v>
@@ -5325,7 +5559,7 @@
     </row>
     <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>128</v>
@@ -5334,10 +5568,13 @@
         <v>1</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>613</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>130</v>
@@ -5348,7 +5585,7 @@
     </row>
     <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>128</v>
@@ -5357,10 +5594,13 @@
         <v>1</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>614</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>130</v>
@@ -5371,19 +5611,22 @@
     </row>
     <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>615</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>130</v>
@@ -5394,19 +5637,22 @@
     </row>
     <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>616</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>130</v>
@@ -5417,7 +5663,7 @@
     </row>
     <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>128</v>
@@ -5426,10 +5672,13 @@
         <v>1</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>617</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>130</v>
@@ -5440,7 +5689,7 @@
     </row>
     <row r="52" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>128</v>
@@ -5449,10 +5698,13 @@
         <v>1</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>618</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>130</v>
@@ -5463,7 +5715,7 @@
     </row>
     <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>128</v>
@@ -5472,10 +5724,13 @@
         <v>1</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>619</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>130</v>
@@ -5486,7 +5741,7 @@
     </row>
     <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>128</v>
@@ -5495,10 +5750,13 @@
         <v>1</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>620</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>130</v>
@@ -5509,7 +5767,7 @@
     </row>
     <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>128</v>
@@ -5518,10 +5776,13 @@
         <v>1</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>621</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>130</v>
@@ -5532,7 +5793,7 @@
     </row>
     <row r="56" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>128</v>
@@ -5541,10 +5802,13 @@
         <v>1</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>622</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>130</v>
@@ -5555,7 +5819,7 @@
     </row>
     <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>128</v>
@@ -5564,10 +5828,13 @@
         <v>1</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>623</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>130</v>
@@ -5578,19 +5845,22 @@
     </row>
     <row r="58" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>258</v>
+        <v>128</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>624</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>130</v>
@@ -5601,19 +5871,22 @@
     </row>
     <row r="59" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>128</v>
+        <v>258</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>625</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>130</v>
@@ -5624,7 +5897,7 @@
     </row>
     <row r="60" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>128</v>
@@ -5633,10 +5906,13 @@
         <v>1</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>626</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>130</v>
@@ -5647,7 +5923,7 @@
     </row>
     <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>128</v>
@@ -5656,10 +5932,13 @@
         <v>1</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>627</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>130</v>
@@ -5670,7 +5949,7 @@
     </row>
     <row r="62" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>128</v>
@@ -5679,10 +5958,13 @@
         <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>628</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>130</v>
@@ -5693,7 +5975,7 @@
     </row>
     <row r="63" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>128</v>
@@ -5702,10 +5984,13 @@
         <v>1</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>629</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>130</v>
@@ -5716,7 +6001,7 @@
     </row>
     <row r="64" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>128</v>
@@ -5725,10 +6010,13 @@
         <v>1</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>630</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>130</v>
@@ -5739,7 +6027,7 @@
     </row>
     <row r="65" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>128</v>
@@ -5748,10 +6036,13 @@
         <v>1</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>631</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>130</v>
@@ -5762,7 +6053,7 @@
     </row>
     <row r="66" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>128</v>
@@ -5771,10 +6062,13 @@
         <v>1</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>632</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>130</v>
@@ -5785,7 +6079,7 @@
     </row>
     <row r="67" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>128</v>
@@ -5794,10 +6088,13 @@
         <v>1</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>633</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>130</v>
@@ -5808,7 +6105,7 @@
     </row>
     <row r="68" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>128</v>
@@ -5817,10 +6114,13 @@
         <v>1</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>283</v>
+        <v>276</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>634</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>130</v>
@@ -5830,31 +6130,16 @@
       </c>
     </row>
     <row r="69" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C69" s="3">
-        <v>1</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>286</v>
-      </c>
       <c r="E69" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>131</v>
+        <v>601</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>128</v>
@@ -5863,10 +6148,13 @@
         <v>1</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>637</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>130</v>
@@ -5877,7 +6165,7 @@
     </row>
     <row r="71" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>128</v>
@@ -5886,10 +6174,10 @@
         <v>1</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>130</v>
@@ -5900,7 +6188,7 @@
     </row>
     <row r="72" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>128</v>
@@ -5909,10 +6197,10 @@
         <v>1</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>130</v>
@@ -5923,7 +6211,7 @@
     </row>
     <row r="73" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>128</v>
@@ -5932,10 +6220,10 @@
         <v>1</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>130</v>
@@ -5946,7 +6234,7 @@
     </row>
     <row r="74" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>128</v>
@@ -5955,10 +6243,10 @@
         <v>1</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>130</v>
@@ -5968,31 +6256,13 @@
       </c>
     </row>
     <row r="75" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C75" s="3">
-        <v>1</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>301</v>
-      </c>
       <c r="E75" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>128</v>
@@ -6001,13 +6271,10 @@
         <v>1</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>578</v>
+        <v>296</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>130</v>
@@ -6018,7 +6285,7 @@
     </row>
     <row r="77" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>128</v>
@@ -6027,10 +6294,10 @@
         <v>1</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>130</v>
@@ -6041,7 +6308,7 @@
     </row>
     <row r="78" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>128</v>
@@ -6050,10 +6317,10 @@
         <v>1</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>130</v>
@@ -6063,31 +6330,13 @@
       </c>
     </row>
     <row r="79" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C79" s="3">
-        <v>1</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>309</v>
-      </c>
       <c r="E79" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>131</v>
+        <v>603</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>128</v>
@@ -6096,10 +6345,13 @@
         <v>1</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>310</v>
+        <v>302</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>576</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>130</v>
@@ -6110,7 +6362,7 @@
     </row>
     <row r="81" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>128</v>
@@ -6119,10 +6371,10 @@
         <v>1</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>130</v>
@@ -6133,7 +6385,7 @@
     </row>
     <row r="82" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>128</v>
@@ -6142,10 +6394,10 @@
         <v>1</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>130</v>
@@ -6156,7 +6408,7 @@
     </row>
     <row r="83" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>128</v>
@@ -6165,10 +6417,10 @@
         <v>1</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>130</v>
@@ -6179,7 +6431,7 @@
     </row>
     <row r="84" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>128</v>
@@ -6188,10 +6440,10 @@
         <v>1</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>130</v>
@@ -6202,7 +6454,7 @@
     </row>
     <row r="85" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>128</v>
@@ -6211,10 +6463,10 @@
         <v>1</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>130</v>
@@ -6225,7 +6477,7 @@
     </row>
     <row r="86" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>128</v>
@@ -6234,10 +6486,10 @@
         <v>1</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>130</v>
@@ -6248,7 +6500,7 @@
     </row>
     <row r="87" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>128</v>
@@ -6257,10 +6509,10 @@
         <v>1</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>130</v>
@@ -6271,7 +6523,7 @@
     </row>
     <row r="88" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>128</v>
@@ -6280,10 +6532,10 @@
         <v>1</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>130</v>
@@ -6294,7 +6546,7 @@
     </row>
     <row r="89" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>128</v>
@@ -6303,10 +6555,10 @@
         <v>1</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>130</v>
@@ -6317,7 +6569,7 @@
     </row>
     <row r="90" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>128</v>
@@ -6326,10 +6578,10 @@
         <v>1</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>130</v>
@@ -6340,7 +6592,7 @@
     </row>
     <row r="91" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>128</v>
@@ -6349,10 +6601,10 @@
         <v>1</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>130</v>
@@ -6363,7 +6615,7 @@
     </row>
     <row r="92" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>128</v>
@@ -6372,10 +6624,10 @@
         <v>1</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>130</v>
@@ -6386,7 +6638,7 @@
     </row>
     <row r="93" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>128</v>
@@ -6395,10 +6647,10 @@
         <v>1</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>130</v>
@@ -6409,7 +6661,7 @@
     </row>
     <row r="94" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>128</v>
@@ -6418,10 +6670,10 @@
         <v>1</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>130</v>
@@ -6432,7 +6684,7 @@
     </row>
     <row r="95" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>128</v>
@@ -6441,10 +6693,10 @@
         <v>1</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>130</v>
@@ -6455,7 +6707,7 @@
     </row>
     <row r="96" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>128</v>
@@ -6464,10 +6716,10 @@
         <v>1</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>130</v>
@@ -6478,7 +6730,7 @@
     </row>
     <row r="97" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>128</v>
@@ -6487,10 +6739,10 @@
         <v>1</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>130</v>
@@ -6501,7 +6753,7 @@
     </row>
     <row r="98" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>128</v>
@@ -6510,10 +6762,10 @@
         <v>1</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>130</v>
@@ -6524,7 +6776,7 @@
     </row>
     <row r="99" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>128</v>
@@ -6533,10 +6785,10 @@
         <v>1</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>130</v>
@@ -6545,9 +6797,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>128</v>
@@ -6556,10 +6808,10 @@
         <v>1</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>130</v>
@@ -6570,7 +6822,7 @@
     </row>
     <row r="101" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>128</v>
@@ -6579,13 +6831,10 @@
         <v>1</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>579</v>
+        <v>344</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>130</v>
@@ -6596,7 +6845,7 @@
     </row>
     <row r="102" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>128</v>
@@ -6605,10 +6854,10 @@
         <v>1</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>130</v>
@@ -6619,7 +6868,7 @@
     </row>
     <row r="103" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>128</v>
@@ -6628,13 +6877,10 @@
         <v>1</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>580</v>
+        <v>348</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>130</v>
@@ -6643,9 +6889,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>128</v>
@@ -6654,10 +6900,10 @@
         <v>1</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>130</v>
@@ -6666,32 +6912,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C105" s="3">
-        <v>1</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
+    <row r="105" spans="1:9" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="106" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>395</v>
+        <v>354</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>128</v>
@@ -6700,13 +6924,13 @@
         <v>1</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>396</v>
+        <v>355</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="F106" s="13" t="s">
-        <v>581</v>
+        <v>354</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>577</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>130</v>
@@ -6715,9 +6939,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>397</v>
+        <v>356</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>128</v>
@@ -6726,10 +6950,10 @@
         <v>1</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>397</v>
+        <v>356</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>130</v>
@@ -6738,32 +6962,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C108" s="3">
-        <v>1</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
+    <row r="108" spans="1:9" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="109" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>128</v>
@@ -6772,10 +6974,13 @@
         <v>1</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>401</v>
+        <v>366</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>578</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>130</v>
@@ -6786,7 +6991,7 @@
     </row>
     <row r="110" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>128</v>
@@ -6795,10 +7000,10 @@
         <v>1</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>130</v>
@@ -6809,7 +7014,7 @@
     </row>
     <row r="111" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>128</v>
@@ -6818,10 +7023,10 @@
         <v>1</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>130</v>
@@ -6830,32 +7035,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C112" s="3">
-        <v>1</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
+    <row r="112" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="113" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>128</v>
@@ -6864,10 +7047,13 @@
         <v>1</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>409</v>
+        <v>395</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>579</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>130</v>
@@ -6878,7 +7064,7 @@
     </row>
     <row r="114" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>128</v>
@@ -6887,10 +7073,10 @@
         <v>1</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>130</v>
@@ -6901,7 +7087,7 @@
     </row>
     <row r="115" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>128</v>
@@ -6910,10 +7096,10 @@
         <v>1</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>130</v>
@@ -6924,24 +7110,185 @@
     </row>
     <row r="116" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C116" s="3">
+        <v>1</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C117" s="3">
+        <v>1</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C118" s="3">
+        <v>1</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C119" s="3">
+        <v>1</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C120" s="3">
+        <v>1</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C121" s="3">
+        <v>1</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C122" s="3">
+        <v>1</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C116" s="3">
-        <v>1</v>
-      </c>
-      <c r="D116" s="3" t="s">
+      <c r="B123" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C123" s="3">
+        <v>1</v>
+      </c>
+      <c r="D123" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E123" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="H116" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I116" s="3" t="s">
+      <c r="H123" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I123" s="3" t="s">
         <v>131</v>
       </c>
     </row>

--- a/scripting/boundary_conditions/wlwq_allsamples/TFV_mapping_keys.xlsx
+++ b/scripting/boundary_conditions/wlwq_allsamples/TFV_mapping_keys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yvette/Desktop/Work/UWA AED/Hydro Tasmania/tassie-lake/tassielakes-data/scripting/boundary_conditions/wlwq_allsamples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F29F498-DEFF-9140-80BD-024E4D9FE5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FE0053-4568-9B4F-B9B7-9C319E6FA4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4540" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{31442990-50AF-C843-98D9-B85B28910463}"/>
+    <workbookView xWindow="-4540" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{31442990-50AF-C843-98D9-B85B28910463}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_TFV_Y" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="694">
   <si>
     <t>Params.Name</t>
   </si>
@@ -1765,18 +1765,6 @@
     <t>2017-2021</t>
   </si>
   <si>
-    <t>WQ_DIAG_PHY_BGA_</t>
-  </si>
-  <si>
-    <t>WQ_DIAG_PHY_DINO_</t>
-  </si>
-  <si>
-    <t>WQ_DIAG_PHY_EUGLE_</t>
-  </si>
-  <si>
-    <t>WQ_DIAG_PHY_OCHRO_</t>
-  </si>
-  <si>
     <t>WQ_DIAG_PHY_CHARA_COSMOCLADIUM</t>
   </si>
   <si>
@@ -1837,18 +1825,6 @@
     <t>WQ_DIAG_PHY_GRN_COSMARIUM</t>
   </si>
   <si>
-    <t>Charophyta (Total)</t>
-  </si>
-  <si>
-    <t>Chlorophyta (Total)</t>
-  </si>
-  <si>
-    <t>Chrysophyta (Total)</t>
-  </si>
-  <si>
-    <t>Cryptophyta (Total)</t>
-  </si>
-  <si>
     <t>WQ_DIAG_PHY_GRN_CRUCIGENIA</t>
   </si>
   <si>
@@ -1949,6 +1925,198 @@
   </si>
   <si>
     <t>WQ_DIAG_PHY_CHRYSO</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_CHRYSO_DINOBRYON</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_CHRYSO_GLOBULIFERA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_CHRYSO_MALLOMONAS_AKROKOMOS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_CHRYSO_MALLOMONAS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_CHRYSO_SYNURA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_CRYPTO_CHROOMONAS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_CRYPTO_CRYPTOMONAS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_CRYPTO_UNIDENTIFIED_CRYPTOMONAD</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_CRYPTO</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_BGA_ANABAENA_BERGII</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_BGA_ANABAENA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_BGA_ANABAENOPSIS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_BGA_ANATHECE</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_BGA_APHANOCAPSA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_BGA_APHNOTHECE1</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_BGA_APHNOTHECE</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_BGA_BORZIA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_BGA_CHROOCOCCUS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_BGA_CYANODICTYON</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_BGA_DOLICHOSPERMUM</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_BGA_GEITLERINEMA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_BGA_GLOEOCAPSA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_BGA_GLOEOTHECE</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_BGA_MERISMOPEDIA</t>
+  </si>
+  <si>
+    <t>Cyanobacteria (Merismopedia sp.)</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_BGA_MICROCYSTIS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_BGA_MYXOBAKTRON</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_BGA_NOID_CYANOPHYTE</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_BGA_NODULARIA_SPUMIGENA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_BGA_PHORMIDIUM</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_BGA_PSEUDANABAENA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_BGA_RHABDODERMA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_BGA_RHABDOGLOEA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_BGA_SNOWELLA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_BGA_SYNECHOCOCCUS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_BGA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_DINO_GYMNODINIUM</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_DINO_PERIDINIUM</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_DINO</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_EUGLE_EUGLENA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_EUGLE_PHACUS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_EUGLE_TRACHELOMONAS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_EUGLE</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_OCHRO_APEDINELLA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_OCHRO_CHRYSOCOCCUS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_OCHRO_CHRYSOSPHAERELLA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_OCHRO_EPITHEMIA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_OCHRO_KEPHYRION</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_OCHRO_NAEGELIELLA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_OCHRO_OCHROMONAS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_OCHRO_RHOPALODIA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_OCHRO_SPINIFEROMONAS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_OCHRO_SURIRELLA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_OCHRO_UROGLENA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_OCHRO</t>
+  </si>
+  <si>
+    <t>Bacillariophyta</t>
+  </si>
+  <si>
+    <t>Charophyta</t>
+  </si>
+  <si>
+    <t>Chlorophyta</t>
+  </si>
+  <si>
+    <t>Chrysophyta</t>
+  </si>
+  <si>
+    <t>Cryptophyta</t>
+  </si>
+  <si>
+    <t>Cyanobacteria</t>
+  </si>
+  <si>
+    <t>Dinophyta</t>
+  </si>
+  <si>
+    <t>Euglenophyta</t>
+  </si>
+  <si>
+    <t>Ochrophyta</t>
   </si>
 </sst>
 </file>
@@ -4345,10 +4513,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4789,7 +4957,7 @@
     </row>
     <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E16" s="3" t="s">
-        <v>518</v>
+        <v>685</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>519</v>
@@ -4812,7 +4980,7 @@
         <v>171</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>130</v>
@@ -4838,7 +5006,7 @@
         <v>173</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>130</v>
@@ -4864,7 +5032,7 @@
         <v>175</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>130</v>
@@ -4890,7 +5058,7 @@
         <v>177</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>130</v>
@@ -4916,7 +5084,7 @@
         <v>179</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>130</v>
@@ -4942,7 +5110,7 @@
         <v>181</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>130</v>
@@ -4968,7 +5136,7 @@
         <v>183</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>130</v>
@@ -4994,7 +5162,7 @@
         <v>185</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>130</v>
@@ -5020,7 +5188,7 @@
         <v>187</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>130</v>
@@ -5031,10 +5199,10 @@
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E26" s="3" t="s">
-        <v>600</v>
+        <v>686</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5054,7 +5222,7 @@
         <v>192</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>130</v>
@@ -5080,7 +5248,7 @@
         <v>194</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>130</v>
@@ -5106,7 +5274,7 @@
         <v>196</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>130</v>
@@ -5132,7 +5300,7 @@
         <v>198</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>130</v>
@@ -5158,7 +5326,7 @@
         <v>200</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>130</v>
@@ -5184,7 +5352,7 @@
         <v>202</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>130</v>
@@ -5210,7 +5378,7 @@
         <v>204</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>130</v>
@@ -5236,7 +5404,7 @@
         <v>206</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>130</v>
@@ -5262,7 +5430,7 @@
         <v>208</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>130</v>
@@ -5288,7 +5456,7 @@
         <v>210</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>130</v>
@@ -5314,7 +5482,7 @@
         <v>212</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>130</v>
@@ -5340,7 +5508,7 @@
         <v>214</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>130</v>
@@ -5366,7 +5534,7 @@
         <v>216</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>130</v>
@@ -5392,7 +5560,7 @@
         <v>218</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>130</v>
@@ -5418,7 +5586,7 @@
         <v>220</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>130</v>
@@ -5444,7 +5612,7 @@
         <v>222</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>130</v>
@@ -5470,7 +5638,7 @@
         <v>224</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>130</v>
@@ -5496,7 +5664,7 @@
         <v>226</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>130</v>
@@ -5522,7 +5690,7 @@
         <v>228</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>130</v>
@@ -5548,7 +5716,7 @@
         <v>230</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>130</v>
@@ -5574,7 +5742,7 @@
         <v>232</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>130</v>
@@ -5600,7 +5768,7 @@
         <v>234</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>130</v>
@@ -5626,7 +5794,7 @@
         <v>236</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>130</v>
@@ -5652,7 +5820,7 @@
         <v>238</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>130</v>
@@ -5678,7 +5846,7 @@
         <v>241</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>130</v>
@@ -5704,7 +5872,7 @@
         <v>243</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>130</v>
@@ -5730,7 +5898,7 @@
         <v>245</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>130</v>
@@ -5756,7 +5924,7 @@
         <v>247</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>130</v>
@@ -5782,7 +5950,7 @@
         <v>249</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>130</v>
@@ -5808,7 +5976,7 @@
         <v>251</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>130</v>
@@ -5834,7 +6002,7 @@
         <v>253</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>130</v>
@@ -5860,7 +6028,7 @@
         <v>255</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>130</v>
@@ -5886,7 +6054,7 @@
         <v>257</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>130</v>
@@ -5912,7 +6080,7 @@
         <v>260</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>130</v>
@@ -5938,7 +6106,7 @@
         <v>262</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>130</v>
@@ -5964,7 +6132,7 @@
         <v>264</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>130</v>
@@ -5990,7 +6158,7 @@
         <v>266</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>130</v>
@@ -6016,7 +6184,7 @@
         <v>268</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>130</v>
@@ -6042,7 +6210,7 @@
         <v>270</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>130</v>
@@ -6068,7 +6236,7 @@
         <v>272</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>130</v>
@@ -6094,7 +6262,7 @@
         <v>274</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>130</v>
@@ -6120,7 +6288,7 @@
         <v>276</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>130</v>
@@ -6131,10 +6299,10 @@
     </row>
     <row r="69" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E69" s="3" t="s">
-        <v>601</v>
+        <v>687</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -6154,7 +6322,7 @@
         <v>283</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>130</v>
@@ -6179,6 +6347,9 @@
       <c r="E71" s="3" t="s">
         <v>285</v>
       </c>
+      <c r="F71" s="3" t="s">
+        <v>631</v>
+      </c>
       <c r="H71" s="3" t="s">
         <v>130</v>
       </c>
@@ -6202,6 +6373,9 @@
       <c r="E72" s="3" t="s">
         <v>287</v>
       </c>
+      <c r="F72" s="3" t="s">
+        <v>632</v>
+      </c>
       <c r="H72" s="3" t="s">
         <v>130</v>
       </c>
@@ -6225,6 +6399,9 @@
       <c r="E73" s="3" t="s">
         <v>289</v>
       </c>
+      <c r="F73" s="3" t="s">
+        <v>633</v>
+      </c>
       <c r="H73" s="3" t="s">
         <v>130</v>
       </c>
@@ -6248,6 +6425,9 @@
       <c r="E74" s="3" t="s">
         <v>291</v>
       </c>
+      <c r="F74" s="3" t="s">
+        <v>634</v>
+      </c>
       <c r="H74" s="3" t="s">
         <v>130</v>
       </c>
@@ -6257,7 +6437,10 @@
     </row>
     <row r="75" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E75" s="3" t="s">
-        <v>602</v>
+        <v>688</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6276,6 +6459,9 @@
       <c r="E76" s="3" t="s">
         <v>296</v>
       </c>
+      <c r="F76" s="3" t="s">
+        <v>635</v>
+      </c>
       <c r="H76" s="3" t="s">
         <v>130</v>
       </c>
@@ -6299,6 +6485,9 @@
       <c r="E77" s="3" t="s">
         <v>298</v>
       </c>
+      <c r="F77" s="3" t="s">
+        <v>636</v>
+      </c>
       <c r="H77" s="3" t="s">
         <v>130</v>
       </c>
@@ -6322,6 +6511,9 @@
       <c r="E78" s="3" t="s">
         <v>300</v>
       </c>
+      <c r="F78" s="3" t="s">
+        <v>637</v>
+      </c>
       <c r="H78" s="3" t="s">
         <v>130</v>
       </c>
@@ -6331,7 +6523,10 @@
     </row>
     <row r="79" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E79" s="3" t="s">
-        <v>603</v>
+        <v>689</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -6351,7 +6546,7 @@
         <v>302</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>576</v>
+        <v>639</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>130</v>
@@ -6376,6 +6571,9 @@
       <c r="E81" s="3" t="s">
         <v>304</v>
       </c>
+      <c r="F81" s="3" t="s">
+        <v>640</v>
+      </c>
       <c r="H81" s="3" t="s">
         <v>130</v>
       </c>
@@ -6399,6 +6597,9 @@
       <c r="E82" s="3" t="s">
         <v>306</v>
       </c>
+      <c r="F82" s="3" t="s">
+        <v>641</v>
+      </c>
       <c r="H82" s="3" t="s">
         <v>130</v>
       </c>
@@ -6422,6 +6623,9 @@
       <c r="E83" s="3" t="s">
         <v>308</v>
       </c>
+      <c r="F83" s="3" t="s">
+        <v>642</v>
+      </c>
       <c r="H83" s="3" t="s">
         <v>130</v>
       </c>
@@ -6445,6 +6649,9 @@
       <c r="E84" s="3" t="s">
         <v>310</v>
       </c>
+      <c r="F84" s="3" t="s">
+        <v>643</v>
+      </c>
       <c r="H84" s="3" t="s">
         <v>130</v>
       </c>
@@ -6468,6 +6675,9 @@
       <c r="E85" s="3" t="s">
         <v>312</v>
       </c>
+      <c r="F85" s="3" t="s">
+        <v>644</v>
+      </c>
       <c r="H85" s="3" t="s">
         <v>130</v>
       </c>
@@ -6491,6 +6701,9 @@
       <c r="E86" s="3" t="s">
         <v>314</v>
       </c>
+      <c r="F86" s="3" t="s">
+        <v>645</v>
+      </c>
       <c r="H86" s="3" t="s">
         <v>130</v>
       </c>
@@ -6514,6 +6727,9 @@
       <c r="E87" s="3" t="s">
         <v>316</v>
       </c>
+      <c r="F87" s="3" t="s">
+        <v>646</v>
+      </c>
       <c r="H87" s="3" t="s">
         <v>130</v>
       </c>
@@ -6537,6 +6753,9 @@
       <c r="E88" s="3" t="s">
         <v>318</v>
       </c>
+      <c r="F88" s="3" t="s">
+        <v>647</v>
+      </c>
       <c r="H88" s="3" t="s">
         <v>130</v>
       </c>
@@ -6560,6 +6779,9 @@
       <c r="E89" s="3" t="s">
         <v>320</v>
       </c>
+      <c r="F89" s="3" t="s">
+        <v>648</v>
+      </c>
       <c r="H89" s="3" t="s">
         <v>130</v>
       </c>
@@ -6583,6 +6805,9 @@
       <c r="E90" s="3" t="s">
         <v>322</v>
       </c>
+      <c r="F90" s="3" t="s">
+        <v>649</v>
+      </c>
       <c r="H90" s="3" t="s">
         <v>130</v>
       </c>
@@ -6606,6 +6831,9 @@
       <c r="E91" s="3" t="s">
         <v>324</v>
       </c>
+      <c r="F91" s="3" t="s">
+        <v>650</v>
+      </c>
       <c r="H91" s="3" t="s">
         <v>130</v>
       </c>
@@ -6629,6 +6857,9 @@
       <c r="E92" s="3" t="s">
         <v>326</v>
       </c>
+      <c r="F92" s="3" t="s">
+        <v>651</v>
+      </c>
       <c r="H92" s="3" t="s">
         <v>130</v>
       </c>
@@ -6652,6 +6883,9 @@
       <c r="E93" s="3" t="s">
         <v>328</v>
       </c>
+      <c r="F93" s="3" t="s">
+        <v>652</v>
+      </c>
       <c r="H93" s="3" t="s">
         <v>130</v>
       </c>
@@ -6673,7 +6907,10 @@
         <v>331</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>330</v>
+        <v>654</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>653</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>130</v>
@@ -6698,6 +6935,9 @@
       <c r="E95" s="3" t="s">
         <v>332</v>
       </c>
+      <c r="F95" s="3" t="s">
+        <v>655</v>
+      </c>
       <c r="H95" s="3" t="s">
         <v>130</v>
       </c>
@@ -6721,6 +6961,9 @@
       <c r="E96" s="3" t="s">
         <v>334</v>
       </c>
+      <c r="F96" s="3" t="s">
+        <v>656</v>
+      </c>
       <c r="H96" s="3" t="s">
         <v>130</v>
       </c>
@@ -6744,6 +6987,9 @@
       <c r="E97" s="3" t="s">
         <v>336</v>
       </c>
+      <c r="F97" s="3" t="s">
+        <v>657</v>
+      </c>
       <c r="H97" s="3" t="s">
         <v>130</v>
       </c>
@@ -6767,6 +7013,9 @@
       <c r="E98" s="3" t="s">
         <v>338</v>
       </c>
+      <c r="F98" s="3" t="s">
+        <v>658</v>
+      </c>
       <c r="H98" s="3" t="s">
         <v>130</v>
       </c>
@@ -6790,6 +7039,9 @@
       <c r="E99" s="3" t="s">
         <v>340</v>
       </c>
+      <c r="F99" s="3" t="s">
+        <v>659</v>
+      </c>
       <c r="H99" s="3" t="s">
         <v>130</v>
       </c>
@@ -6813,6 +7065,9 @@
       <c r="E100" s="3" t="s">
         <v>342</v>
       </c>
+      <c r="F100" s="3" t="s">
+        <v>660</v>
+      </c>
       <c r="H100" s="3" t="s">
         <v>130</v>
       </c>
@@ -6836,6 +7091,9 @@
       <c r="E101" s="3" t="s">
         <v>344</v>
       </c>
+      <c r="F101" s="3" t="s">
+        <v>661</v>
+      </c>
       <c r="H101" s="3" t="s">
         <v>130</v>
       </c>
@@ -6859,6 +7117,9 @@
       <c r="E102" s="3" t="s">
         <v>346</v>
       </c>
+      <c r="F102" s="3" t="s">
+        <v>662</v>
+      </c>
       <c r="H102" s="3" t="s">
         <v>130</v>
       </c>
@@ -6882,6 +7143,9 @@
       <c r="E103" s="3" t="s">
         <v>348</v>
       </c>
+      <c r="F103" s="3" t="s">
+        <v>663</v>
+      </c>
       <c r="H103" s="3" t="s">
         <v>130</v>
       </c>
@@ -6905,6 +7169,9 @@
       <c r="E104" s="3" t="s">
         <v>350</v>
       </c>
+      <c r="F104" s="3" t="s">
+        <v>664</v>
+      </c>
       <c r="H104" s="3" t="s">
         <v>130</v>
       </c>
@@ -6912,7 +7179,14 @@
         <v>131</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="1:9" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E105" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
     <row r="106" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>354</v>
@@ -6930,7 +7204,7 @@
         <v>354</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>577</v>
+        <v>666</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>130</v>
@@ -6955,6 +7229,9 @@
       <c r="E107" s="3" t="s">
         <v>356</v>
       </c>
+      <c r="F107" s="3" t="s">
+        <v>667</v>
+      </c>
       <c r="H107" s="3" t="s">
         <v>130</v>
       </c>
@@ -6962,7 +7239,14 @@
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="1:9" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E108" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
     <row r="109" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>366</v>
@@ -6980,7 +7264,7 @@
         <v>366</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>578</v>
+        <v>669</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>130</v>
@@ -7005,6 +7289,9 @@
       <c r="E110" s="3" t="s">
         <v>368</v>
       </c>
+      <c r="F110" s="3" t="s">
+        <v>670</v>
+      </c>
       <c r="H110" s="3" t="s">
         <v>130</v>
       </c>
@@ -7028,6 +7315,9 @@
       <c r="E111" s="3" t="s">
         <v>370</v>
       </c>
+      <c r="F111" s="3" t="s">
+        <v>671</v>
+      </c>
       <c r="H111" s="3" t="s">
         <v>130</v>
       </c>
@@ -7035,7 +7325,14 @@
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E112" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
     <row r="113" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>395</v>
@@ -7053,7 +7350,7 @@
         <v>395</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>579</v>
+        <v>673</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>130</v>
@@ -7078,6 +7375,9 @@
       <c r="E114" s="3" t="s">
         <v>397</v>
       </c>
+      <c r="F114" s="3" t="s">
+        <v>674</v>
+      </c>
       <c r="H114" s="3" t="s">
         <v>130</v>
       </c>
@@ -7101,6 +7401,9 @@
       <c r="E115" s="3" t="s">
         <v>399</v>
       </c>
+      <c r="F115" s="3" t="s">
+        <v>675</v>
+      </c>
       <c r="H115" s="3" t="s">
         <v>130</v>
       </c>
@@ -7124,6 +7427,9 @@
       <c r="E116" s="3" t="s">
         <v>401</v>
       </c>
+      <c r="F116" s="3" t="s">
+        <v>676</v>
+      </c>
       <c r="H116" s="3" t="s">
         <v>130</v>
       </c>
@@ -7147,6 +7453,9 @@
       <c r="E117" s="3" t="s">
         <v>403</v>
       </c>
+      <c r="F117" s="3" t="s">
+        <v>677</v>
+      </c>
       <c r="H117" s="3" t="s">
         <v>130</v>
       </c>
@@ -7170,6 +7479,9 @@
       <c r="E118" s="3" t="s">
         <v>405</v>
       </c>
+      <c r="F118" s="3" t="s">
+        <v>678</v>
+      </c>
       <c r="H118" s="3" t="s">
         <v>130</v>
       </c>
@@ -7193,6 +7505,9 @@
       <c r="E119" s="3" t="s">
         <v>407</v>
       </c>
+      <c r="F119" s="3" t="s">
+        <v>679</v>
+      </c>
       <c r="H119" s="3" t="s">
         <v>130</v>
       </c>
@@ -7216,6 +7531,9 @@
       <c r="E120" s="3" t="s">
         <v>409</v>
       </c>
+      <c r="F120" s="3" t="s">
+        <v>680</v>
+      </c>
       <c r="H120" s="3" t="s">
         <v>130</v>
       </c>
@@ -7239,6 +7557,9 @@
       <c r="E121" s="3" t="s">
         <v>411</v>
       </c>
+      <c r="F121" s="3" t="s">
+        <v>681</v>
+      </c>
       <c r="H121" s="3" t="s">
         <v>130</v>
       </c>
@@ -7262,6 +7583,9 @@
       <c r="E122" s="3" t="s">
         <v>413</v>
       </c>
+      <c r="F122" s="3" t="s">
+        <v>682</v>
+      </c>
       <c r="H122" s="3" t="s">
         <v>130</v>
       </c>
@@ -7285,11 +7609,22 @@
       <c r="E123" s="3" t="s">
         <v>415</v>
       </c>
+      <c r="F123" s="3" t="s">
+        <v>683</v>
+      </c>
       <c r="H123" s="3" t="s">
         <v>130</v>
       </c>
       <c r="I123" s="3" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E124" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>684</v>
       </c>
     </row>
   </sheetData>

--- a/scripting/boundary_conditions/wlwq_allsamples/TFV_mapping_keys.xlsx
+++ b/scripting/boundary_conditions/wlwq_allsamples/TFV_mapping_keys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yvette/Desktop/Work/UWA AED/Hydro Tasmania/tassie-lake/tassielakes-data/scripting/boundary_conditions/wlwq_allsamples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FE0053-4568-9B4F-B9B7-9C319E6FA4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363B0035-7FED-9449-A394-6BAEAFCDE6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4540" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{31442990-50AF-C843-98D9-B85B28910463}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="14700" windowHeight="17200" xr2:uid="{31442990-50AF-C843-98D9-B85B28910463}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_TFV_Y" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="696">
   <si>
     <t>Params.Name</t>
   </si>
@@ -2117,6 +2117,12 @@
   </si>
   <si>
     <t>Ochrophyta</t>
+  </si>
+  <si>
+    <t>COND</t>
+  </si>
+  <si>
+    <t>AIR_TEMPERATURE</t>
   </si>
 </sst>
 </file>
@@ -2650,25 +2656,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -3049,1458 +3050,1422 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="10.83203125" style="6"/>
     <col min="3" max="3" width="39.5" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="47.6640625" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="47.6640625" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>526</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" t="s">
         <v>527</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>477</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" t="s">
         <v>528</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3">
         <v>71.428571428571431</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
         <v>478</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" t="s">
         <v>528</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4">
         <v>32.258064516129032</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
         <v>480</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" t="s">
         <v>529</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s">
         <v>535</v>
       </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
         <v>481</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" t="s">
         <v>530</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
         <v>482</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" t="s">
         <v>528</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8">
         <v>31.25</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
         <v>483</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" t="s">
         <v>528</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9">
         <v>71.428571428571431</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
         <v>484</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" t="s">
         <v>528</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10">
         <v>71.428571428571431</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>694</v>
+      </c>
+      <c r="H11" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" t="s">
         <v>531</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
         <v>486</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" t="s">
         <v>528</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12">
         <v>71.428571428571431</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
         <v>487</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5">
+      <c r="J13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
         <v>515</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" t="s">
         <v>528</v>
       </c>
       <c r="J14" s="4">
         <v>100.0869</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" t="s">
         <v>532</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" t="s">
         <v>533</v>
       </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
         <v>488</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" t="s">
         <v>72</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" t="s">
         <v>533</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="H16" s="5" t="s">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>695</v>
+      </c>
+      <c r="H16" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" t="s">
         <v>534</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>542</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
+      <c r="D17" t="s">
         <v>543</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" t="s">
         <v>533</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
+      <c r="G17" t="s">
         <v>516</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5" t="s">
+      <c r="I17" t="s">
         <v>533</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
         <v>490</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" t="s">
         <v>528</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18">
         <v>71.428571428571431</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" t="s">
         <v>535</v>
       </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
         <v>491</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" t="s">
         <v>530</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="5">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
         <v>492</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" t="s">
         <v>528</v>
       </c>
-      <c r="J20" s="5">
-        <v>1</v>
-      </c>
-      <c r="K20" s="5" t="s">
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="5">
-        <v>1</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
         <v>493</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" t="s">
         <v>91</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" t="s">
         <v>528</v>
       </c>
-      <c r="J21" s="5">
-        <v>1</v>
-      </c>
-      <c r="K21" s="5" t="s">
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="5">
-        <v>1</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
         <v>494</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" t="s">
         <v>91</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" t="s">
         <v>528</v>
       </c>
-      <c r="J22" s="5">
-        <v>1</v>
-      </c>
-      <c r="K22" s="5" t="s">
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="5">
-        <v>1</v>
-      </c>
-      <c r="G23" s="6" t="s">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" t="s">
         <v>91</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" t="s">
         <v>528</v>
       </c>
-      <c r="J23" s="5">
-        <v>1</v>
-      </c>
-      <c r="K23" s="5" t="s">
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="5">
-        <v>1</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" t="s">
         <v>91</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" t="s">
         <v>528</v>
       </c>
-      <c r="J24" s="5">
-        <v>1</v>
-      </c>
-      <c r="K24" s="5" t="s">
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" t="s">
         <v>163</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="5">
-        <v>1</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" t="s">
         <v>528</v>
       </c>
-      <c r="J25" s="5">
-        <v>1</v>
-      </c>
-      <c r="K25" s="5" t="s">
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" t="s">
         <v>190</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" t="s">
         <v>189</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" t="s">
         <v>191</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="5">
-        <v>1</v>
-      </c>
-      <c r="G26" s="6" t="s">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" t="s">
         <v>528</v>
       </c>
-      <c r="J26" s="5">
-        <v>1</v>
-      </c>
-      <c r="K26" s="5" t="s">
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" t="s">
         <v>353</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" t="s">
         <v>352</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" t="s">
         <v>352</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F27" s="5">
-        <v>1</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="E27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
         <v>514</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I27" s="5" t="s">
+      <c r="H27" t="s">
+        <v>131</v>
+      </c>
+      <c r="I27" t="s">
         <v>528</v>
       </c>
-      <c r="J27" s="5">
-        <v>1</v>
-      </c>
-      <c r="K27" s="5" t="s">
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
+      <c r="A28" s="6">
         <v>2004</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" t="s">
         <v>378</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" t="s">
         <v>377</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" t="s">
         <v>379</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="5">
-        <v>1</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" t="s">
         <v>91</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" t="s">
         <v>528</v>
       </c>
-      <c r="J28" s="5">
-        <v>1</v>
-      </c>
-      <c r="K28" s="5" t="s">
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" t="s">
         <v>381</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" t="s">
         <v>380</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" t="s">
         <v>382</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="5">
-        <v>1</v>
-      </c>
-      <c r="G29" s="6" t="s">
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" t="s">
         <v>528</v>
       </c>
-      <c r="J29" s="5">
-        <v>1</v>
-      </c>
-      <c r="K29" s="5" t="s">
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" t="s">
         <v>384</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" t="s">
         <v>383</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" t="s">
         <v>385</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="5">
-        <v>1</v>
-      </c>
-      <c r="G30" s="6" t="s">
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" t="s">
         <v>91</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" t="s">
         <v>528</v>
       </c>
-      <c r="J30" s="5">
-        <v>1</v>
-      </c>
-      <c r="K30" s="5" t="s">
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" t="s">
         <v>387</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" t="s">
         <v>386</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" t="s">
         <v>388</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="5">
-        <v>1</v>
-      </c>
-      <c r="G31" s="6" t="s">
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" t="s">
         <v>91</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" t="s">
         <v>528</v>
       </c>
-      <c r="J31" s="5">
-        <v>1</v>
-      </c>
-      <c r="K31" s="5" t="s">
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
+      <c r="A32" s="6">
         <v>2012</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" t="s">
         <v>390</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" t="s">
         <v>389</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" t="s">
         <v>389</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="5">
-        <v>1</v>
-      </c>
-      <c r="G32" s="6" t="s">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="H32" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I32" s="5" t="s">
+      <c r="H32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I32" t="s">
         <v>528</v>
       </c>
-      <c r="J32" s="5">
-        <v>1</v>
-      </c>
-      <c r="K32" s="5" t="s">
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
+      <c r="A33" s="6">
         <v>2012</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" t="s">
         <v>392</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" t="s">
         <v>391</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" t="s">
         <v>391</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="5">
-        <v>1</v>
-      </c>
-      <c r="G33" s="6" t="s">
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="H33" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I33" s="5" t="s">
+      <c r="H33" t="s">
+        <v>131</v>
+      </c>
+      <c r="I33" t="s">
         <v>528</v>
       </c>
-      <c r="J33" s="5">
-        <v>1</v>
-      </c>
-      <c r="K33" s="5" t="s">
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" t="s">
         <v>421</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" t="s">
         <v>420</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" t="s">
         <v>422</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="5">
-        <v>1</v>
-      </c>
-      <c r="G34" s="5" t="s">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
         <v>505</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" t="s">
         <v>528</v>
       </c>
-      <c r="J34" s="5">
-        <v>1</v>
-      </c>
-      <c r="K34" s="5" t="s">
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
+      <c r="A35" s="6">
         <v>2014</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" t="s">
         <v>424</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" t="s">
         <v>423</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" t="s">
         <v>425</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="5">
-        <v>1</v>
-      </c>
-      <c r="G35" s="5" t="s">
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
         <v>506</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" t="s">
         <v>528</v>
       </c>
-      <c r="J35" s="5">
-        <v>1</v>
-      </c>
-      <c r="K35" s="5" t="s">
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" t="s">
         <v>427</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" t="s">
         <v>426</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" t="s">
         <v>428</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="5">
-        <v>1</v>
-      </c>
-      <c r="G36" s="5" t="s">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
         <v>507</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" t="s">
         <v>528</v>
       </c>
-      <c r="J36" s="5">
-        <v>1</v>
-      </c>
-      <c r="K36" s="5" t="s">
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" t="s">
         <v>431</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" t="s">
         <v>429</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" t="s">
         <v>429</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" t="s">
         <v>430</v>
       </c>
-      <c r="F37" s="5">
-        <v>1</v>
-      </c>
-      <c r="G37" s="5" t="s">
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
         <v>508</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" t="s">
         <v>365</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" t="s">
         <v>539</v>
       </c>
       <c r="J37" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="K37" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" t="s">
         <v>433</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" t="s">
         <v>432</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" t="s">
         <v>434</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="5">
-        <v>1</v>
-      </c>
-      <c r="G38" s="5" t="s">
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
         <v>509</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" t="s">
         <v>528</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38">
         <v>32.258064516129032</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" t="s">
         <v>436</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" t="s">
         <v>435</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" t="s">
         <v>437</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="5">
-        <v>1</v>
-      </c>
-      <c r="G39" s="5" t="s">
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
         <v>510</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" t="s">
         <v>15</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" t="s">
         <v>528</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39">
         <v>32.258064516129032</v>
       </c>
-      <c r="K39" s="5" t="s">
+      <c r="K39" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" t="s">
         <v>446</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" t="s">
         <v>445</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" t="s">
         <v>447</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="5">
-        <v>1</v>
-      </c>
-      <c r="G40" s="5" t="s">
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
         <v>511</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" t="s">
         <v>15</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" t="s">
         <v>528</v>
       </c>
       <c r="J40" s="4">
         <v>96.06</v>
       </c>
-      <c r="K40" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="M40" s="5" t="s">
+      <c r="K40" t="s">
+        <v>130</v>
+      </c>
+      <c r="M40" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" t="s">
         <v>470</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" t="s">
         <v>469</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" t="s">
         <v>471</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" t="s">
         <v>74</v>
       </c>
-      <c r="F41" s="5">
-        <v>1</v>
-      </c>
-      <c r="G41" s="5" t="s">
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
         <v>512</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" t="s">
         <v>10</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I41" t="s">
         <v>534</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" t="s">
         <v>474</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" t="s">
         <v>472</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" t="s">
         <v>475</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" t="s">
         <v>473</v>
       </c>
-      <c r="F42" s="5">
-        <v>1</v>
-      </c>
-      <c r="G42" s="5" t="s">
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
         <v>537</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" t="s">
         <v>10</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" t="s">
         <v>538</v>
       </c>
-      <c r="J42" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
+      <c r="J42">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -4515,7 +4480,7 @@
   </sheetPr>
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
@@ -4771,7 +4736,7 @@
       <c r="F9" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="9" t="s">
         <v>570</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -7349,7 +7314,7 @@
       <c r="E113" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="F113" s="13" t="s">
+      <c r="F113" s="10" t="s">
         <v>673</v>
       </c>
       <c r="H113" s="3" t="s">
@@ -7636,8 +7601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBEBB67-B796-B745-ADC0-A42124A9F3FA}">
   <dimension ref="A1:H192"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="E173" sqref="E173:E175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/scripting/boundary_conditions/wlwq_allsamples/TFV_mapping_keys.xlsx
+++ b/scripting/boundary_conditions/wlwq_allsamples/TFV_mapping_keys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yvette/Desktop/Work/UWA AED/Hydro Tasmania/tassie-lake/tassielakes-data/scripting/boundary_conditions/wlwq_allsamples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yvette/Desktop/Work/UWA AED/Hydro Tasmania/updates/tassielakes-data/scripting/boundary_conditions/wlwq_allsamples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363B0035-7FED-9449-A394-6BAEAFCDE6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592206EC-E8E7-6B48-9F0D-81416DCA93B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="14700" windowHeight="17200" xr2:uid="{31442990-50AF-C843-98D9-B85B28910463}"/>
+    <workbookView xWindow="14700" yWindow="740" windowWidth="14700" windowHeight="17200" activeTab="1" xr2:uid="{31442990-50AF-C843-98D9-B85B28910463}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_TFV_Y" sheetId="3" r:id="rId1"/>
@@ -1792,12 +1792,6 @@
     <t>WQ_DIAG_PHY_CHARA_ZYGNEMA</t>
   </si>
   <si>
-    <t>WQ_DIAG_PHY_GRN__ANKISTRODESMUS</t>
-  </si>
-  <si>
-    <t>WQ_DIAG_PHY_GRN__ANKYRA</t>
-  </si>
-  <si>
     <t>WQ_DIAG_PHY_GRN_BOTRYCOCCUS</t>
   </si>
   <si>
@@ -2123,6 +2117,12 @@
   </si>
   <si>
     <t>AIR_TEMPERATURE</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_ANKISTRODESMUS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_GRN_ANKYRA</t>
   </si>
 </sst>
 </file>
@@ -2285,7 +2285,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2491,7 +2491,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDAF2D0"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2656,7 +2662,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2671,7 +2677,8 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3052,7 +3059,7 @@
   </sheetPr>
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D20" sqref="D20:D37"/>
     </sheetView>
   </sheetViews>
@@ -3409,7 +3416,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H11" t="s">
         <v>10</v>
@@ -3569,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H16" t="s">
         <v>43</v>
@@ -4480,8 +4487,8 @@
   </sheetPr>
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4524,10 +4531,10 @@
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="10" t="s">
         <v>135</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -4553,10 +4560,10 @@
       <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="10" t="s">
         <v>137</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -4582,10 +4589,10 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="10" t="s">
         <v>139</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -4611,13 +4618,13 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="10" t="s">
         <v>556</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -4640,13 +4647,13 @@
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="10" t="s">
         <v>557</v>
       </c>
       <c r="G6" s="3">
@@ -4669,13 +4676,13 @@
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="10" t="s">
         <v>558</v>
       </c>
       <c r="G7" s="3">
@@ -4698,13 +4705,13 @@
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="10" t="s">
         <v>559</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -4727,13 +4734,13 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="10" t="s">
         <v>560</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -4756,13 +4763,13 @@
       <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="10" t="s">
         <v>561</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -4785,13 +4792,13 @@
       <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="10" t="s">
         <v>562</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -4814,13 +4821,13 @@
       <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="10" t="s">
         <v>563</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -4843,13 +4850,13 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="10" t="s">
         <v>564</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -4872,13 +4879,13 @@
       <c r="C14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="10" t="s">
         <v>565</v>
       </c>
       <c r="G14" s="3">
@@ -4901,13 +4908,13 @@
       <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="10" t="s">
         <v>566</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -4922,7 +4929,7 @@
     </row>
     <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E16" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>519</v>
@@ -4938,13 +4945,13 @@
       <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="10" t="s">
         <v>576</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -4964,13 +4971,13 @@
       <c r="C18" s="3">
         <v>1</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="10" t="s">
         <v>577</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -4990,13 +4997,13 @@
       <c r="C19" s="3">
         <v>1</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="10" t="s">
         <v>578</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -5016,13 +5023,13 @@
       <c r="C20" s="3">
         <v>1</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="10" t="s">
         <v>579</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -5042,13 +5049,13 @@
       <c r="C21" s="3">
         <v>1</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="10" t="s">
         <v>580</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -5068,13 +5075,13 @@
       <c r="C22" s="3">
         <v>1</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="10" t="s">
         <v>581</v>
       </c>
       <c r="H22" s="3" t="s">
@@ -5094,13 +5101,13 @@
       <c r="C23" s="3">
         <v>1</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="10" t="s">
         <v>582</v>
       </c>
       <c r="H23" s="3" t="s">
@@ -5120,13 +5127,13 @@
       <c r="C24" s="3">
         <v>1</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="10" t="s">
         <v>583</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -5146,13 +5153,13 @@
       <c r="C25" s="3">
         <v>1</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="10" t="s">
         <v>584</v>
       </c>
       <c r="H25" s="3" t="s">
@@ -5164,10 +5171,10 @@
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E26" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5180,14 +5187,14 @@
       <c r="C27" s="3">
         <v>1</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>585</v>
+      <c r="F27" s="10" t="s">
+        <v>694</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>130</v>
@@ -5206,14 +5213,14 @@
       <c r="C28" s="3">
         <v>1</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>586</v>
+      <c r="F28" s="10" t="s">
+        <v>695</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>130</v>
@@ -5232,14 +5239,14 @@
       <c r="C29" s="3">
         <v>1</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>587</v>
+      <c r="F29" s="10" t="s">
+        <v>585</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>130</v>
@@ -5258,14 +5265,14 @@
       <c r="C30" s="3">
         <v>1</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>588</v>
+      <c r="F30" s="10" t="s">
+        <v>586</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>130</v>
@@ -5284,14 +5291,14 @@
       <c r="C31" s="3">
         <v>1</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>589</v>
+      <c r="F31" s="10" t="s">
+        <v>587</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>130</v>
@@ -5310,14 +5317,14 @@
       <c r="C32" s="3">
         <v>1</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>590</v>
+      <c r="F32" s="10" t="s">
+        <v>588</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>130</v>
@@ -5336,14 +5343,14 @@
       <c r="C33" s="3">
         <v>1</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>591</v>
+      <c r="F33" s="10" t="s">
+        <v>589</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>130</v>
@@ -5362,14 +5369,14 @@
       <c r="C34" s="3">
         <v>1</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>592</v>
+      <c r="F34" s="10" t="s">
+        <v>590</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>130</v>
@@ -5388,14 +5395,14 @@
       <c r="C35" s="3">
         <v>1</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>593</v>
+      <c r="F35" s="10" t="s">
+        <v>591</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>130</v>
@@ -5414,14 +5421,14 @@
       <c r="C36" s="3">
         <v>1</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>594</v>
+      <c r="F36" s="10" t="s">
+        <v>592</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>130</v>
@@ -5440,14 +5447,14 @@
       <c r="C37" s="3">
         <v>1</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>595</v>
+      <c r="F37" s="10" t="s">
+        <v>593</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>130</v>
@@ -5466,14 +5473,14 @@
       <c r="C38" s="3">
         <v>1</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>596</v>
+      <c r="F38" s="10" t="s">
+        <v>594</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>130</v>
@@ -5492,14 +5499,14 @@
       <c r="C39" s="3">
         <v>1</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>597</v>
+      <c r="F39" s="10" t="s">
+        <v>595</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>130</v>
@@ -5518,14 +5525,14 @@
       <c r="C40" s="3">
         <v>1</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>598</v>
+      <c r="F40" s="10" t="s">
+        <v>596</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>130</v>
@@ -5544,14 +5551,14 @@
       <c r="C41" s="3">
         <v>1</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>599</v>
+      <c r="F41" s="10" t="s">
+        <v>597</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>130</v>
@@ -5570,14 +5577,14 @@
       <c r="C42" s="3">
         <v>1</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>600</v>
+      <c r="F42" s="10" t="s">
+        <v>598</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>130</v>
@@ -5596,14 +5603,14 @@
       <c r="C43" s="3">
         <v>1</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>601</v>
+      <c r="F43" s="10" t="s">
+        <v>599</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>130</v>
@@ -5622,14 +5629,14 @@
       <c r="C44" s="3">
         <v>1</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>602</v>
+      <c r="F44" s="10" t="s">
+        <v>600</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>130</v>
@@ -5648,14 +5655,14 @@
       <c r="C45" s="3">
         <v>1</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>603</v>
+      <c r="F45" s="10" t="s">
+        <v>601</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>130</v>
@@ -5674,14 +5681,14 @@
       <c r="C46" s="3">
         <v>1</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>604</v>
+      <c r="F46" s="10" t="s">
+        <v>602</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>130</v>
@@ -5700,14 +5707,14 @@
       <c r="C47" s="3">
         <v>1</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>605</v>
+      <c r="F47" s="10" t="s">
+        <v>603</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>130</v>
@@ -5726,14 +5733,14 @@
       <c r="C48" s="3">
         <v>1</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>606</v>
+      <c r="F48" s="10" t="s">
+        <v>604</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>130</v>
@@ -5752,14 +5759,14 @@
       <c r="C49" s="3">
         <v>1</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>607</v>
+      <c r="F49" s="10" t="s">
+        <v>605</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>130</v>
@@ -5778,14 +5785,14 @@
       <c r="C50" s="3">
         <v>1</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>608</v>
+      <c r="F50" s="10" t="s">
+        <v>606</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>130</v>
@@ -5804,14 +5811,14 @@
       <c r="C51" s="3">
         <v>1</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>609</v>
+      <c r="F51" s="10" t="s">
+        <v>607</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>130</v>
@@ -5830,14 +5837,14 @@
       <c r="C52" s="3">
         <v>1</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>610</v>
+      <c r="F52" s="10" t="s">
+        <v>608</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>130</v>
@@ -5856,14 +5863,14 @@
       <c r="C53" s="3">
         <v>1</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>611</v>
+      <c r="F53" s="10" t="s">
+        <v>609</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>130</v>
@@ -5882,14 +5889,14 @@
       <c r="C54" s="3">
         <v>1</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>612</v>
+      <c r="F54" s="10" t="s">
+        <v>610</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>130</v>
@@ -5908,14 +5915,14 @@
       <c r="C55" s="3">
         <v>1</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>613</v>
+      <c r="F55" s="10" t="s">
+        <v>611</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>130</v>
@@ -5934,14 +5941,14 @@
       <c r="C56" s="3">
         <v>1</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>614</v>
+      <c r="F56" s="10" t="s">
+        <v>612</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>130</v>
@@ -5960,14 +5967,14 @@
       <c r="C57" s="3">
         <v>1</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>615</v>
+      <c r="F57" s="10" t="s">
+        <v>613</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>130</v>
@@ -5986,14 +5993,14 @@
       <c r="C58" s="3">
         <v>1</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>616</v>
+      <c r="F58" s="10" t="s">
+        <v>614</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>130</v>
@@ -6012,14 +6019,14 @@
       <c r="C59" s="3">
         <v>1</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>617</v>
+      <c r="F59" s="10" t="s">
+        <v>615</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>130</v>
@@ -6038,14 +6045,14 @@
       <c r="C60" s="3">
         <v>1</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>618</v>
+      <c r="F60" s="10" t="s">
+        <v>616</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>130</v>
@@ -6064,14 +6071,14 @@
       <c r="C61" s="3">
         <v>1</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>619</v>
+      <c r="F61" s="10" t="s">
+        <v>617</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>130</v>
@@ -6090,14 +6097,14 @@
       <c r="C62" s="3">
         <v>1</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>620</v>
+      <c r="F62" s="10" t="s">
+        <v>618</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>130</v>
@@ -6116,14 +6123,14 @@
       <c r="C63" s="3">
         <v>1</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>621</v>
+      <c r="F63" s="10" t="s">
+        <v>619</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>130</v>
@@ -6142,14 +6149,14 @@
       <c r="C64" s="3">
         <v>1</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>622</v>
+      <c r="F64" s="10" t="s">
+        <v>620</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>130</v>
@@ -6168,14 +6175,14 @@
       <c r="C65" s="3">
         <v>1</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>623</v>
+      <c r="F65" s="10" t="s">
+        <v>621</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>130</v>
@@ -6194,14 +6201,14 @@
       <c r="C66" s="3">
         <v>1</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>624</v>
+      <c r="F66" s="10" t="s">
+        <v>622</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>130</v>
@@ -6220,14 +6227,14 @@
       <c r="C67" s="3">
         <v>1</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>625</v>
+      <c r="F67" s="10" t="s">
+        <v>623</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>130</v>
@@ -6246,14 +6253,14 @@
       <c r="C68" s="3">
         <v>1</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>626</v>
+      <c r="F68" s="10" t="s">
+        <v>624</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>130</v>
@@ -6264,10 +6271,10 @@
     </row>
     <row r="69" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E69" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -6280,14 +6287,14 @@
       <c r="C70" s="3">
         <v>1</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>630</v>
+      <c r="F70" s="10" t="s">
+        <v>628</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>130</v>
@@ -6306,14 +6313,14 @@
       <c r="C71" s="3">
         <v>1</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>631</v>
+      <c r="F71" s="10" t="s">
+        <v>629</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>130</v>
@@ -6332,14 +6339,14 @@
       <c r="C72" s="3">
         <v>1</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>632</v>
+      <c r="F72" s="10" t="s">
+        <v>630</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>130</v>
@@ -6358,14 +6365,14 @@
       <c r="C73" s="3">
         <v>1</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>633</v>
+      <c r="F73" s="10" t="s">
+        <v>631</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>130</v>
@@ -6384,14 +6391,14 @@
       <c r="C74" s="3">
         <v>1</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>634</v>
+      <c r="F74" s="10" t="s">
+        <v>632</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>130</v>
@@ -6402,10 +6409,10 @@
     </row>
     <row r="75" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E75" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6418,14 +6425,14 @@
       <c r="C76" s="3">
         <v>1</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>635</v>
+      <c r="F76" s="10" t="s">
+        <v>633</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>130</v>
@@ -6444,14 +6451,14 @@
       <c r="C77" s="3">
         <v>1</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>636</v>
+      <c r="F77" s="10" t="s">
+        <v>634</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>130</v>
@@ -6470,14 +6477,14 @@
       <c r="C78" s="3">
         <v>1</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>637</v>
+      <c r="F78" s="10" t="s">
+        <v>635</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>130</v>
@@ -6488,10 +6495,10 @@
     </row>
     <row r="79" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E79" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -6504,14 +6511,14 @@
       <c r="C80" s="3">
         <v>1</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>639</v>
+      <c r="F80" s="10" t="s">
+        <v>637</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>130</v>
@@ -6530,14 +6537,14 @@
       <c r="C81" s="3">
         <v>1</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>640</v>
+      <c r="F81" s="10" t="s">
+        <v>638</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>130</v>
@@ -6556,14 +6563,14 @@
       <c r="C82" s="3">
         <v>1</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="F82" s="3" t="s">
-        <v>641</v>
+      <c r="F82" s="10" t="s">
+        <v>639</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>130</v>
@@ -6582,14 +6589,14 @@
       <c r="C83" s="3">
         <v>1</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>642</v>
+      <c r="F83" s="10" t="s">
+        <v>640</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>130</v>
@@ -6608,14 +6615,14 @@
       <c r="C84" s="3">
         <v>1</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="F84" s="3" t="s">
-        <v>643</v>
+      <c r="F84" s="10" t="s">
+        <v>641</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>130</v>
@@ -6634,14 +6641,14 @@
       <c r="C85" s="3">
         <v>1</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="F85" s="3" t="s">
-        <v>644</v>
+      <c r="F85" s="10" t="s">
+        <v>642</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>130</v>
@@ -6660,14 +6667,14 @@
       <c r="C86" s="3">
         <v>1</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>645</v>
+      <c r="F86" s="10" t="s">
+        <v>643</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>130</v>
@@ -6686,14 +6693,14 @@
       <c r="C87" s="3">
         <v>1</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>646</v>
+      <c r="F87" s="10" t="s">
+        <v>644</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>130</v>
@@ -6712,14 +6719,14 @@
       <c r="C88" s="3">
         <v>1</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="F88" s="3" t="s">
-        <v>647</v>
+      <c r="F88" s="10" t="s">
+        <v>645</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>130</v>
@@ -6738,14 +6745,14 @@
       <c r="C89" s="3">
         <v>1</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>648</v>
+      <c r="F89" s="10" t="s">
+        <v>646</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>130</v>
@@ -6764,14 +6771,14 @@
       <c r="C90" s="3">
         <v>1</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="F90" s="3" t="s">
-        <v>649</v>
+      <c r="F90" s="10" t="s">
+        <v>647</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>130</v>
@@ -6790,14 +6797,14 @@
       <c r="C91" s="3">
         <v>1</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>650</v>
+      <c r="F91" s="10" t="s">
+        <v>648</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>130</v>
@@ -6816,14 +6823,14 @@
       <c r="C92" s="3">
         <v>1</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>651</v>
+      <c r="F92" s="10" t="s">
+        <v>649</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>130</v>
@@ -6842,14 +6849,14 @@
       <c r="C93" s="3">
         <v>1</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="F93" s="3" t="s">
-        <v>652</v>
+      <c r="F93" s="10" t="s">
+        <v>650</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>130</v>
@@ -6868,14 +6875,14 @@
       <c r="C94" s="3">
         <v>1</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>653</v>
+      <c r="E94" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>651</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>130</v>
@@ -6894,14 +6901,14 @@
       <c r="C95" s="3">
         <v>1</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>655</v>
+      <c r="F95" s="10" t="s">
+        <v>653</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>130</v>
@@ -6920,14 +6927,14 @@
       <c r="C96" s="3">
         <v>1</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="F96" s="3" t="s">
-        <v>656</v>
+      <c r="F96" s="10" t="s">
+        <v>654</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>130</v>
@@ -6946,14 +6953,14 @@
       <c r="C97" s="3">
         <v>1</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="F97" s="3" t="s">
-        <v>657</v>
+      <c r="F97" s="10" t="s">
+        <v>655</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>130</v>
@@ -6972,14 +6979,14 @@
       <c r="C98" s="3">
         <v>1</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="F98" s="3" t="s">
-        <v>658</v>
+      <c r="F98" s="10" t="s">
+        <v>656</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>130</v>
@@ -6998,14 +7005,14 @@
       <c r="C99" s="3">
         <v>1</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="F99" s="3" t="s">
-        <v>659</v>
+      <c r="F99" s="10" t="s">
+        <v>657</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>130</v>
@@ -7024,14 +7031,14 @@
       <c r="C100" s="3">
         <v>1</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>660</v>
+      <c r="F100" s="10" t="s">
+        <v>658</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>130</v>
@@ -7050,14 +7057,14 @@
       <c r="C101" s="3">
         <v>1</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>661</v>
+      <c r="F101" s="10" t="s">
+        <v>659</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>130</v>
@@ -7076,14 +7083,14 @@
       <c r="C102" s="3">
         <v>1</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E102" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>662</v>
+      <c r="F102" s="10" t="s">
+        <v>660</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>130</v>
@@ -7102,14 +7109,14 @@
       <c r="C103" s="3">
         <v>1</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E103" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F103" s="3" t="s">
-        <v>663</v>
+      <c r="F103" s="10" t="s">
+        <v>661</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>130</v>
@@ -7128,14 +7135,14 @@
       <c r="C104" s="3">
         <v>1</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="F104" s="3" t="s">
-        <v>664</v>
+      <c r="F104" s="10" t="s">
+        <v>662</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>130</v>
@@ -7146,10 +7153,10 @@
     </row>
     <row r="105" spans="1:9" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E105" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -7162,14 +7169,14 @@
       <c r="C106" s="3">
         <v>1</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E106" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="F106" s="3" t="s">
-        <v>666</v>
+      <c r="F106" s="10" t="s">
+        <v>664</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>130</v>
@@ -7188,14 +7195,14 @@
       <c r="C107" s="3">
         <v>1</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E107" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="F107" s="3" t="s">
-        <v>667</v>
+      <c r="F107" s="10" t="s">
+        <v>665</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>130</v>
@@ -7206,10 +7213,10 @@
     </row>
     <row r="108" spans="1:9" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E108" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -7222,14 +7229,14 @@
       <c r="C109" s="3">
         <v>1</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="F109" s="3" t="s">
-        <v>669</v>
+      <c r="F109" s="10" t="s">
+        <v>667</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>130</v>
@@ -7248,14 +7255,14 @@
       <c r="C110" s="3">
         <v>1</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="F110" s="3" t="s">
-        <v>670</v>
+      <c r="F110" s="10" t="s">
+        <v>668</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>130</v>
@@ -7274,14 +7281,14 @@
       <c r="C111" s="3">
         <v>1</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E111" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="F111" s="3" t="s">
-        <v>671</v>
+      <c r="F111" s="10" t="s">
+        <v>669</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>130</v>
@@ -7292,10 +7299,10 @@
     </row>
     <row r="112" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E112" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="113" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -7308,14 +7315,14 @@
       <c r="C113" s="3">
         <v>1</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E113" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="F113" s="10" t="s">
-        <v>673</v>
+      <c r="F113" s="11" t="s">
+        <v>671</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>130</v>
@@ -7334,14 +7341,14 @@
       <c r="C114" s="3">
         <v>1</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="F114" s="3" t="s">
-        <v>674</v>
+      <c r="F114" s="10" t="s">
+        <v>672</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>130</v>
@@ -7360,14 +7367,14 @@
       <c r="C115" s="3">
         <v>1</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E115" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="F115" s="3" t="s">
-        <v>675</v>
+      <c r="F115" s="10" t="s">
+        <v>673</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>130</v>
@@ -7386,14 +7393,14 @@
       <c r="C116" s="3">
         <v>1</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E116" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="F116" s="3" t="s">
-        <v>676</v>
+      <c r="F116" s="10" t="s">
+        <v>674</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>130</v>
@@ -7412,14 +7419,14 @@
       <c r="C117" s="3">
         <v>1</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="E117" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="F117" s="3" t="s">
-        <v>677</v>
+      <c r="F117" s="10" t="s">
+        <v>675</v>
       </c>
       <c r="H117" s="3" t="s">
         <v>130</v>
@@ -7438,14 +7445,14 @@
       <c r="C118" s="3">
         <v>1</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E118" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="F118" s="3" t="s">
-        <v>678</v>
+      <c r="F118" s="10" t="s">
+        <v>676</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>130</v>
@@ -7464,14 +7471,14 @@
       <c r="C119" s="3">
         <v>1</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E119" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="F119" s="3" t="s">
-        <v>679</v>
+      <c r="F119" s="10" t="s">
+        <v>677</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>130</v>
@@ -7490,14 +7497,14 @@
       <c r="C120" s="3">
         <v>1</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E120" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="F120" s="3" t="s">
-        <v>680</v>
+      <c r="F120" s="10" t="s">
+        <v>678</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>130</v>
@@ -7516,14 +7523,14 @@
       <c r="C121" s="3">
         <v>1</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E121" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="F121" s="3" t="s">
-        <v>681</v>
+      <c r="F121" s="10" t="s">
+        <v>679</v>
       </c>
       <c r="H121" s="3" t="s">
         <v>130</v>
@@ -7542,14 +7549,14 @@
       <c r="C122" s="3">
         <v>1</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E122" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="F122" s="3" t="s">
-        <v>682</v>
+      <c r="F122" s="10" t="s">
+        <v>680</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>130</v>
@@ -7568,14 +7575,14 @@
       <c r="C123" s="3">
         <v>1</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E123" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="F123" s="3" t="s">
-        <v>683</v>
+      <c r="F123" s="10" t="s">
+        <v>681</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>130</v>
@@ -7586,10 +7593,10 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E124" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
   </sheetData>
